--- a/EOBReceiveFeesFromUnitedHealth/faillist_new.xlsx
+++ b/EOBReceiveFeesFromUnitedHealth/faillist_new.xlsx
@@ -14,245 +14,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="79">
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>KINDA</t>
-  </si>
-  <si>
-    <t>01/09/24</t>
-  </si>
-  <si>
-    <t>$294.00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="74">
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>CLOBYS</t>
+  </si>
+  <si>
+    <t>05/05/23</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$875.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 56750125   $0.00
+</t>
+  </si>
+  <si>
+    <t>UNITED HEALTHCARE</t>
+  </si>
+  <si>
+    <t>06/01/2024</t>
+  </si>
+  <si>
+    <t>05/09/23</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>06/16/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 57037509   $0.00
+</t>
+  </si>
+  <si>
+    <t>VITALONE</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>08/10/23</t>
+  </si>
+  <si>
+    <t>$532.40</t>
+  </si>
+  <si>
+    <t>$650.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 57552462   $0.00
+</t>
+  </si>
+  <si>
+    <t>ATTENBOROUGH</t>
+  </si>
+  <si>
+    <t>LIDA</t>
+  </si>
+  <si>
+    <t>07/11/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 57544256   $0.00
+</t>
+  </si>
+  <si>
+    <t>07/15/23</t>
+  </si>
+  <si>
+    <t>07/20/23</t>
+  </si>
+  <si>
+    <t>07/22/23</t>
+  </si>
+  <si>
+    <t>BARRETT</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>06/01/23</t>
+  </si>
+  <si>
+    <t>06/02/23</t>
+  </si>
+  <si>
+    <t>06/06/23</t>
+  </si>
+  <si>
+    <t>06/07/23</t>
+  </si>
+  <si>
+    <t>06/12/23</t>
+  </si>
+  <si>
+    <t>06/14/23</t>
+  </si>
+  <si>
+    <t>07/03/23</t>
+  </si>
+  <si>
+    <t>07/21/23</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>07/28/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 57959836   $0.00
+</t>
+  </si>
+  <si>
+    <t>08/04/23</t>
+  </si>
+  <si>
+    <t>08/07/23</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>GIORDANO</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>07/26/23</t>
   </si>
   <si>
     <t>$625.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> TZ 74876942   $5,013.93
+    <t>MCINTOSH</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>PACTONG</t>
+  </si>
+  <si>
+    <t>ALISON</t>
+  </si>
+  <si>
+    <t>07/13/23</t>
+  </si>
+  <si>
+    <t>07/31/23</t>
+  </si>
+  <si>
+    <t>DAVILA</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>07/25/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 58053885   $0.00
 </t>
   </si>
   <si>
-    <t>UNITED HEALTHCARE</t>
-  </si>
-  <si>
-    <t>05/25/2024</t>
-  </si>
-  <si>
-    <t>01/11/24</t>
-  </si>
-  <si>
-    <t>01/18/24</t>
-  </si>
-  <si>
-    <t>01/23/24</t>
-  </si>
-  <si>
-    <t>01/26/24</t>
-  </si>
-  <si>
-    <t>01/29/24</t>
-  </si>
-  <si>
-    <t>02/02/24</t>
-  </si>
-  <si>
-    <t>02/05/24</t>
-  </si>
-  <si>
-    <t>02/09/24</t>
-  </si>
-  <si>
-    <t>02/12/24</t>
-  </si>
-  <si>
-    <t>02/15/24</t>
+    <t>08/19/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 59542126   $0.00
+</t>
+  </si>
+  <si>
+    <t>FISHER</t>
+  </si>
+  <si>
+    <t>ALEXANDRA</t>
+  </si>
+  <si>
+    <t>08/17/23</t>
+  </si>
+  <si>
+    <t>06/22/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 59747405   $0.00
+</t>
+  </si>
+  <si>
+    <t>06/30/23</t>
+  </si>
+  <si>
+    <t>07/05/23</t>
+  </si>
+  <si>
+    <t>08/14/23</t>
+  </si>
+  <si>
+    <t>08/22/23</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
   </si>
   <si>
     <t>02/16/24</t>
   </si>
   <si>
-    <t>CAYNE</t>
-  </si>
-  <si>
-    <t>TAARIQ</t>
-  </si>
-  <si>
-    <t>02/22/24</t>
-  </si>
-  <si>
-    <t>$74.57</t>
-  </si>
-  <si>
-    <t>COHEN</t>
-  </si>
-  <si>
-    <t>STEPHEN</t>
-  </si>
-  <si>
-    <t>$338.80</t>
-  </si>
-  <si>
-    <t>02/19/24</t>
-  </si>
-  <si>
-    <t>HSWE</t>
-  </si>
-  <si>
-    <t>BARBARA</t>
-  </si>
-  <si>
-    <t>01/27/24</t>
-  </si>
-  <si>
-    <t>$343.00</t>
-  </si>
-  <si>
     <t>$725.00</t>
   </si>
   <si>
-    <t>BOSAKA</t>
-  </si>
-  <si>
-    <t>NATSUKO</t>
-  </si>
-  <si>
-    <t>$252.00</t>
-  </si>
-  <si>
-    <t>RYAN</t>
-  </si>
-  <si>
-    <t>CAITLIN</t>
-  </si>
-  <si>
-    <t>02/20/24</t>
-  </si>
-  <si>
-    <t>$69.38</t>
-  </si>
-  <si>
-    <t>02/26/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TZ 75645438   $8,565.43
+    <t xml:space="preserve"> TZ 75521417   $0.00
 </t>
-  </si>
-  <si>
-    <t>HAN</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>01/22/24</t>
-  </si>
-  <si>
-    <t>$245.00</t>
-  </si>
-  <si>
-    <t>01/24/24</t>
-  </si>
-  <si>
-    <t>01/31/24</t>
-  </si>
-  <si>
-    <t>02/13/24</t>
-  </si>
-  <si>
-    <t>02/06/24</t>
-  </si>
-  <si>
-    <t>02/01/24</t>
-  </si>
-  <si>
-    <t>02/03/24</t>
-  </si>
-  <si>
-    <t>02/08/24</t>
-  </si>
-  <si>
-    <t>02/10/24</t>
-  </si>
-  <si>
-    <t>02/17/24</t>
-  </si>
-  <si>
-    <t>02/24/24</t>
-  </si>
-  <si>
-    <t>02/29/24</t>
-  </si>
-  <si>
-    <t>BLANCAFLOR</t>
-  </si>
-  <si>
-    <t>LORNA</t>
-  </si>
-  <si>
-    <t>$99.43</t>
-  </si>
-  <si>
-    <t>BATTISTA</t>
-  </si>
-  <si>
-    <t>YOUNG</t>
-  </si>
-  <si>
-    <t>10/02/23</t>
-  </si>
-  <si>
-    <t>$369.75</t>
-  </si>
-  <si>
-    <t>10/06/23</t>
-  </si>
-  <si>
-    <t>10/13/23</t>
-  </si>
-  <si>
-    <t>10/18/23</t>
-  </si>
-  <si>
-    <t>ZHOU</t>
-  </si>
-  <si>
-    <t>XUEHAN</t>
-  </si>
-  <si>
-    <t>11/04/23</t>
-  </si>
-  <si>
-    <t>$200.01</t>
-  </si>
-  <si>
-    <t>11/06/23</t>
-  </si>
-  <si>
-    <t>$192.51</t>
-  </si>
-  <si>
-    <t>11/08/23</t>
-  </si>
-  <si>
-    <t>$187.38</t>
-  </si>
-  <si>
-    <t>11/10/23</t>
-  </si>
-  <si>
-    <t>11/13/23</t>
-  </si>
-  <si>
-    <t>11/15/23</t>
-  </si>
-  <si>
-    <t>11/17/23</t>
-  </si>
-  <si>
-    <t>$431.38</t>
   </si>
 </sst>
 </file>
@@ -584,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,13 +636,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -665,21 +657,21 @@
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -688,21 +680,21 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -717,18 +709,18 @@
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -743,18 +735,18 @@
         <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -769,18 +761,18 @@
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -795,18 +787,18 @@
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -821,18 +813,18 @@
         <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -847,18 +839,18 @@
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -873,18 +865,18 @@
         <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -899,18 +891,18 @@
         <v>3</v>
       </c>
       <c r="U12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -922,21 +914,21 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
         <v>22</v>
-      </c>
-      <c r="U13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -948,21 +940,21 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -974,24 +966,24 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -1000,21 +992,21 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1026,21 +1018,21 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1052,47 +1044,47 @@
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-      <c r="U19" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1107,18 +1099,18 @@
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1133,47 +1125,47 @@
         <v>3</v>
       </c>
       <c r="U21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1182,24 +1174,24 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="U23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -1208,24 +1200,24 @@
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="U24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1234,24 +1226,24 @@
         <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1260,24 +1252,24 @@
         <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="U26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1286,21 +1278,21 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="U27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1312,24 +1304,24 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -1338,21 +1330,21 @@
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="U29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1364,21 +1356,21 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1390,21 +1382,21 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1416,21 +1408,21 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1442,21 +1434,21 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1468,21 +1460,21 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1494,21 +1486,21 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1520,21 +1512,21 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1546,21 +1538,21 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U37" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1572,21 +1564,21 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1598,21 +1590,21 @@
         <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U39" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1624,21 +1616,21 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U40" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1650,21 +1642,21 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1676,21 +1668,21 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U42" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1702,24 +1694,24 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -1728,296 +1720,10 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="U44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" t="s">
-        <v>62</v>
-      </c>
-      <c r="U45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" t="s">
-        <v>62</v>
-      </c>
-      <c r="U46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-      <c r="U48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-      <c r="U49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" t="s">
         <v>73</v>
-      </c>
-      <c r="U50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-      <c r="U51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" t="s">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
